--- a/Project Development Phase/Performance testing.xlsx
+++ b/Project Development Phase/Performance testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6da45155ccf5ca0e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91950\IBM-Project-31984-1660207197\Project Development Phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECBC44B-46E7-45D4-96BE-BAB1FD0A5FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E62DC-47EE-4E22-8AF1-F5E60CD6E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -223,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +257,13 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -592,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -619,9 +624,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +687,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="36" customHeight="1"/>
@@ -982,48 +988,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="36" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="30"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1053,7 +1059,7 @@
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1083,7 +1089,7 @@
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1113,7 +1119,7 @@
       <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1143,7 +1149,7 @@
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1173,33 +1179,33 @@
       <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1">
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1244,92 +1250,92 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1">
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:10" ht="63.9" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="63.6" customHeight="1">
+      <c r="A15" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1">
-      <c r="A16">
+      <c r="A16" s="36">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" customHeight="1">
-      <c r="A17">
+      <c r="A17" s="36">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1342,6 +1348,7 @@
     <mergeCell ref="D14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -1394,60 +1401,60 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="15" spans="1:8">
       <c r="D15" s="1"/>
